--- a/biology/Zoologie/Icius_faker/Icius_faker.xlsx
+++ b/biology/Zoologie/Icius_faker/Icius_faker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Icius faker est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Icius faker est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Tibet en Chine[1],[2]. Elle se rencontre dans le xian de Rinbung.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Tibet en Chine,. Elle se rencontre dans le xian de Rinbung.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,94 mm de long sur 1,46 mm et l'abdomen 2,16 mm de long sur 1,56 mm et la carapace de la femelle paratype mesure 2,04 mm de long sur 1,61 mm et l'abdomen 3,39 mm de long sur 2,38 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,94 mm de long sur 1,46 mm et l'abdomen 2,16 mm de long sur 1,56 mm et la carapace de la femelle paratype mesure 2,04 mm de long sur 1,61 mm et l'abdomen 3,39 mm de long sur 2,38 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Yang et Zhang en 2024.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Sang-hyeok Lee dit Faker[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Sang-hyeok Lee dit Faker.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Yang &amp; Zhang, 2024 : « On eight species of Chrysillini from Xizang, China (Araneae: Salticidae: Salticinae). » Zootaxa, no 5447(2), p. 151-187.</t>
         </is>
